--- a/Lab4/Syllabus.xlsx
+++ b/Lab4/Syllabus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/600d64f34c8f77ee/Desktop/TKS/Lab/Lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="11_F25DC773A252ABDACC1048D9019D56EA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60B5C75E-BBBC-4B43-B014-C7E38299C0A0}"/>
+  <xr:revisionPtr revIDLastSave="447" documentId="11_F25DC773A252ABDACC1048D9019D56EA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B08617C-55B0-4B42-95CF-570E7EEA677A}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="169">
   <si>
     <t>Thứ 6, 5/4/2024</t>
   </si>
@@ -549,6 +549,24 @@
   <si>
     <t>0d7d</t>
   </si>
+  <si>
+    <t xml:space="preserve">câu lệnh test verilog </t>
+  </si>
+  <si>
+    <t>iverilog -o test.vvp test.v</t>
+  </si>
+  <si>
+    <t>vvp test.vvp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đọc file nhị phân vào kiểu gì ? Và xuất ra  kiểu gì ? </t>
+  </si>
+  <si>
+    <t>Verilog File IO Operations (chipverify.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sử dụng iverilog viết code test trước </t>
+  </si>
 </sst>
 </file>
 
@@ -556,9 +574,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="173" formatCode="0.000000000000000000"/>
-    <numFmt numFmtId="186" formatCode="0.0000000000000000E+00"/>
-    <numFmt numFmtId="187" formatCode="0.00000000000000000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000000000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000000000E+00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -693,22 +711,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1001,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39221582-163F-4D8A-BD79-E5B6C992473B}">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4:P46"/>
     </sheetView>
   </sheetViews>
@@ -1181,7 +1199,7 @@
         <v>-26.117522005138003</v>
       </c>
       <c r="K5" s="14">
-        <f t="shared" ref="K4:K46" si="1" xml:space="preserve"> B5*10000</f>
+        <f t="shared" ref="K5:K46" si="1" xml:space="preserve"> B5*10000</f>
         <v>0.11552647988508001</v>
       </c>
       <c r="O5" s="17" t="s">
@@ -3711,10 +3729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B13"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3796,6 +3814,19 @@
       </c>
       <c r="B13" s="12" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4021,8 +4052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00B04FC-3A52-4DEA-A37B-9915ED852FC5}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4112,12 +4143,18 @@
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -4140,6 +4177,9 @@
       <c r="B19" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" display="https://www.chipverify.com/verilog/verilog-file-io-operations" xr:uid="{D7886023-08F8-496B-90D6-E72860347366}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Lab4/Syllabus.xlsx
+++ b/Lab4/Syllabus.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/600d64f34c8f77ee/Desktop/TKS/Lab/Lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="447" documentId="11_F25DC773A252ABDACC1048D9019D56EA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B08617C-55B0-4B42-95CF-570E7EEA677A}"/>
+  <xr:revisionPtr revIDLastSave="450" documentId="11_F25DC773A252ABDACC1048D9019D56EA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78C65193-B5A2-4C81-859F-4E630F0BD1B8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="4" r:id="rId1"/>
-    <sheet name="Link tài liệu" sheetId="1" r:id="rId2"/>
-    <sheet name="Lab4" sheetId="2" r:id="rId3"/>
+    <sheet name="Lab4" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="4" r:id="rId2"/>
+    <sheet name="Link tài liệu" sheetId="1" r:id="rId3"/>
     <sheet name="Q&amp;A" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1016,6 +1016,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365BF2FE-2A13-4B02-ABE4-817B8D0BBC3A}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.77734375" customWidth="1"/>
+    <col min="7" max="7" width="40.77734375" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="13">
+        <v>45600</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39221582-163F-4D8A-BD79-E5B6C992473B}">
   <dimension ref="A1:V56"/>
   <sheetViews>
@@ -3727,12 +3930,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3845,214 +4048,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365BF2FE-2A13-4B02-ABE4-817B8D0BBC3A}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="61.77734375" customWidth="1"/>
-    <col min="7" max="7" width="40.77734375" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="13">
-        <v>45600</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00B04FC-3A52-4DEA-A37B-9915ED852FC5}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/Lab4/Syllabus.xlsx
+++ b/Lab4/Syllabus.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/600d64f34c8f77ee/Desktop/TKS/Lab/Lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="450" documentId="11_F25DC773A252ABDACC1048D9019D56EA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78C65193-B5A2-4C81-859F-4E630F0BD1B8}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="11_F25DC773A252ABDACC1048D9019D56EA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56931F6A-EBEF-4733-830C-A4AF36F69445}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab4" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="4" r:id="rId2"/>
     <sheet name="Link tài liệu" sheetId="1" r:id="rId3"/>
     <sheet name="Q&amp;A" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="180">
   <si>
     <t>Thứ 6, 5/4/2024</t>
   </si>
@@ -81,11 +82,6 @@
   </si>
   <si>
     <t>edabk_SoC_doc/edabk_server_manual(cookbook).md at main · cern143/edabk_SoC_doc (github.com)</t>
-  </si>
-  <si>
-    <t>* Việc biểu diễn trong miền thời gian hay tần số để đơn giản trong cách xử lí tín hiệu.
-* Bài toán của mình thực hiện trong miền thời gian 
-* DSP 48? Là Digital Signal Processing 4in và 8out</t>
   </si>
   <si>
     <t>Lab4</t>
@@ -183,400 +179,475 @@
 *Bộ lọc IIR: Bộ lọc này có cả đáp ứng tần số và phản ứng thời gian. Nó thực hiện việc lọc bằng cách sử dụng phản hồi của đầu ra vào chính nó. Bộ lọc IIR thường được sử dụng khi cần có đáp ứng tần số phi tuyến và phản ứng thời gian ngắn.</t>
   </si>
   <si>
+    <t>Tại sao sử dụng bộ lọc FIR?</t>
+  </si>
+  <si>
+    <t>Do bộ lọc FIR ổn định, hiệu năng cao (sử dụng FFT) và nhược điểm là bậc bộ lọc cao</t>
+  </si>
+  <si>
+    <t>bộ lọc FIR là gì ?</t>
+  </si>
+  <si>
+    <t>bộ lọc FIR (Finite Impulse Response) , đặc trưng bới đáp ứng xung và có chiều dài hữu hạn, h(n) khác không trong khoảng có chiều dài hữu hạn N (0 đến N-1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool chuyển dấu phẩy tĩnh thành bit </t>
+  </si>
+  <si>
+    <t>Q-format Converter &amp; Calculator (chummersone.github.io)</t>
+  </si>
+  <si>
+    <t>b_1</t>
+  </si>
+  <si>
+    <t>b_2</t>
+  </si>
+  <si>
+    <t>b_2 x10000</t>
+  </si>
+  <si>
+    <t>b_3</t>
+  </si>
+  <si>
+    <t>b_4</t>
+  </si>
+  <si>
+    <t>b_1 x10000</t>
+  </si>
+  <si>
+    <t>b_3 x10000</t>
+  </si>
+  <si>
+    <t>b_4 x10000</t>
+  </si>
+  <si>
+    <t>b_5</t>
+  </si>
+  <si>
+    <t>b_6</t>
+  </si>
+  <si>
+    <t>b_7</t>
+  </si>
+  <si>
+    <t>b_8</t>
+  </si>
+  <si>
+    <t>hệ số nhân</t>
+  </si>
+  <si>
+    <t>b_1 hexa</t>
+  </si>
+  <si>
+    <t>ffb9</t>
+  </si>
+  <si>
+    <t>ffaa</t>
+  </si>
+  <si>
+    <t>ff95</t>
+  </si>
+  <si>
+    <t>ff9f</t>
+  </si>
+  <si>
+    <t>00f5</t>
+  </si>
+  <si>
+    <t>02a6</t>
+  </si>
+  <si>
+    <t>0b16</t>
+  </si>
+  <si>
+    <t>0dcd</t>
+  </si>
+  <si>
+    <t>0fac</t>
+  </si>
+  <si>
+    <t>fffe</t>
+  </si>
+  <si>
+    <t>fff7</t>
+  </si>
+  <si>
+    <t>fff0</t>
+  </si>
+  <si>
+    <t>004e</t>
+  </si>
+  <si>
+    <t>ffe4</t>
+  </si>
+  <si>
+    <t>ff4d</t>
+  </si>
+  <si>
+    <t>021a</t>
+  </si>
+  <si>
+    <t>fb1a</t>
+  </si>
+  <si>
+    <t>fd95</t>
+  </si>
+  <si>
+    <t>07c7</t>
+  </si>
+  <si>
+    <t>07a2</t>
+  </si>
+  <si>
+    <t>f845</t>
+  </si>
+  <si>
+    <t>f26e</t>
+  </si>
+  <si>
+    <t>b_2 hexa</t>
+  </si>
+  <si>
+    <t>b_3 hexa</t>
+  </si>
+  <si>
+    <t>b_4 hexa</t>
+  </si>
+  <si>
+    <t>b_5 hexa</t>
+  </si>
+  <si>
+    <t>b_6 hexa</t>
+  </si>
+  <si>
+    <t>b_7 hexa</t>
+  </si>
+  <si>
+    <t>b_8 hexa</t>
+  </si>
+  <si>
+    <t>fffd</t>
+  </si>
+  <si>
+    <t>fffa</t>
+  </si>
+  <si>
+    <t>fff8</t>
+  </si>
+  <si>
+    <t>fffc</t>
+  </si>
+  <si>
+    <t>000d</t>
+  </si>
+  <si>
+    <t>002b</t>
+  </si>
+  <si>
+    <t>00c3</t>
+  </si>
+  <si>
+    <t>00b2</t>
+  </si>
+  <si>
+    <t>ffef</t>
+  </si>
+  <si>
+    <t>fdd4</t>
+  </si>
+  <si>
+    <t>fa8d</t>
+  </si>
+  <si>
+    <t>f7c4</t>
+  </si>
+  <si>
+    <t>f7fe</t>
+  </si>
+  <si>
+    <t>fcbe</t>
+  </si>
+  <si>
+    <t>04d9</t>
+  </si>
+  <si>
+    <t>0c8f</t>
+  </si>
+  <si>
+    <t>0fbb</t>
+  </si>
+  <si>
+    <t>fff6</t>
+  </si>
+  <si>
+    <t>fff5</t>
+  </si>
+  <si>
+    <t>004c</t>
+  </si>
+  <si>
+    <t>ffd8</t>
+  </si>
+  <si>
+    <t>fed8</t>
+  </si>
+  <si>
+    <t>fe3f</t>
+  </si>
+  <si>
+    <t>042c</t>
+  </si>
+  <si>
+    <t>01c7</t>
+  </si>
+  <si>
+    <t>f803</t>
+  </si>
+  <si>
+    <t>f302</t>
+  </si>
+  <si>
+    <t>fa5b</t>
+  </si>
+  <si>
+    <t>08d9</t>
+  </si>
+  <si>
+    <t>103f</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>fff4</t>
+  </si>
+  <si>
+    <t>ffbe</t>
+  </si>
+  <si>
+    <t>009c</t>
+  </si>
+  <si>
+    <t>fdec</t>
+  </si>
+  <si>
+    <t>04f3</t>
+  </si>
+  <si>
+    <t>fd51</t>
+  </si>
+  <si>
+    <t>f85b</t>
+  </si>
+  <si>
+    <t>076b</t>
+  </si>
+  <si>
+    <t>f23e</t>
+  </si>
+  <si>
+    <t>fcd4</t>
+  </si>
+  <si>
+    <t>fff2</t>
+  </si>
+  <si>
+    <t>ffd4</t>
+  </si>
+  <si>
+    <t>fe9f</t>
+  </si>
+  <si>
+    <t>01ef</t>
+  </si>
+  <si>
+    <t>fb8f</t>
+  </si>
+  <si>
+    <t>06d3</t>
+  </si>
+  <si>
+    <t>fdfb</t>
+  </si>
+  <si>
+    <t>f7fc</t>
+  </si>
+  <si>
+    <t>0d35</t>
+  </si>
+  <si>
+    <t>fa2b</t>
+  </si>
+  <si>
+    <t>f72d</t>
+  </si>
+  <si>
+    <t>100e</t>
+  </si>
+  <si>
+    <t>fff3</t>
+  </si>
+  <si>
+    <t>ff10</t>
+  </si>
+  <si>
+    <t>fe88</t>
+  </si>
+  <si>
+    <t>032c</t>
+  </si>
+  <si>
+    <t>f8f0</t>
+  </si>
+  <si>
+    <t>f7b8</t>
+  </si>
+  <si>
+    <t>029f</t>
+  </si>
+  <si>
+    <t>05c1</t>
+  </si>
+  <si>
+    <t>f2c3</t>
+  </si>
+  <si>
+    <t>0ffe</t>
+  </si>
+  <si>
+    <t>ffe0</t>
+  </si>
+  <si>
+    <t>ff5f</t>
+  </si>
+  <si>
+    <t>fed3</t>
+  </si>
+  <si>
+    <t>fefd</t>
+  </si>
+  <si>
+    <t>fc65</t>
+  </si>
+  <si>
+    <t>f6f8</t>
+  </si>
+  <si>
+    <t>0b74</t>
+  </si>
+  <si>
+    <t>f2e5</t>
+  </si>
+  <si>
+    <t>0d7d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">câu lệnh test verilog </t>
+  </si>
+  <si>
+    <t>iverilog -o test.vvp test.v</t>
+  </si>
+  <si>
+    <t>vvp test.vvp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đọc file nhị phân vào kiểu gì ? Và xuất ra  kiểu gì ? </t>
+  </si>
+  <si>
+    <t>Verilog File IO Operations (chipverify.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sử dụng iverilog viết code test trước </t>
+  </si>
+  <si>
+    <t>Thứ năm, 11/4/2024</t>
+  </si>
+  <si>
+    <t>Thứ 6, 12/4/2024</t>
+  </si>
+  <si>
+    <t>Thứ 3, 9/4/2024</t>
+  </si>
+  <si>
+    <t>* Anh Chuyên cho họp để chốt thiết kế ,đặt deadline code</t>
+  </si>
+  <si>
+    <t>có tham gia</t>
+  </si>
+  <si>
+    <t>* Việc biểu diễn trong miền thời gian hay tần số để đơn giản trong cách xử lí tín hiệu.
+* Bài toán của mình thực hiện trong miền thời gian 
+* DSP 48? Là Digital Signal Processing 4in và 8out
+	Các bước thầy chỉ dẫn: (như trong ảnh)
+	1. Thiết kế bộ lọc - Số bậc bộ lọc (cứ chọn trước một bậc, mô phỏng rồi về sau tối ưu sau)
+	2. Cấu trúc bộ lọc: cấu trúc logic &amp; cấu trúc vật lý (cần phải vẽ được sơ đồ và sơ đồ khối nối chân như trong Github)
+	3. Code Verilog (Không thiết kế bộ nhân mà hãy dùng bộ nhân của FPGA - dùng toán tử *)
+	4. Simulation
+	5. THD
+	1. Hiện tại nhóm đang mất 1 tuần (vì đồng hồ thế kỷ) =&gt; Còn 6 ngày
+	Giải pháp đề ra
+		• Quân: Lấy trên mạng
+		• Huy: Mỗi bạn tìm hiểu một phần lý thuyết
+		• Phương: Cùng tìm hiểu
+	Phương án chung từ anh Chuyên
+	B1, B2: Cùng tìm hiểu lý thuyết -&gt; Nhưng anh Chuyên sẽ giới hạn lại lượng lý thuyết cần tìm hiểu: Lấy luôn trên mạng 1 sơ đồ đơn giản và chỉ tìm hiểu nó (github FIR_filter)
+	2. Timeline
+		• Hết thứ 2, mỗi bạn gửi 1 bản tìm hiểu B1, B2 cho anh Chuyên (bao gồm 3 thiết kế như trong Github)
+		• Thứ 3 sẽ chốt
+Thứ 6 phải có code và wave simulation</t>
+  </si>
+  <si>
+    <t>* Phương thiết kế kiến trúc bộ lọc, tổng quan.-&gt; Chốt lấy của em Phương
+* Quân lấy thiết kế logic và vật lý , hệ số b
+* Huy bổ sung phương pháp MAC để giảm thiểu bộ cộng và nhân -&gt; k đủ tgian triển khai -&gt; để lại</t>
+  </si>
+  <si>
+    <t>Thứ 4, 10/4/2024</t>
+  </si>
+  <si>
+    <t>k làm gì @@@@@</t>
+  </si>
+  <si>
     <t>* Hiểu được spec
-* Biết được sử dụng FIR để làm gì ? (hệ số bộ lọc, kiến trúc tổng quát, logic, vật lý)</t>
-  </si>
-  <si>
-    <t>Tại sao sử dụng bộ lọc FIR?</t>
-  </si>
-  <si>
-    <t>Do bộ lọc FIR ổn định, hiệu năng cao (sử dụng FFT) và nhược điểm là bậc bộ lọc cao</t>
-  </si>
-  <si>
-    <t>bộ lọc FIR là gì ?</t>
-  </si>
-  <si>
-    <t>bộ lọc FIR (Finite Impulse Response) , đặc trưng bới đáp ứng xung và có chiều dài hữu hạn, h(n) khác không trong khoảng có chiều dài hữu hạn N (0 đến N-1).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool chuyển dấu phẩy tĩnh thành bit </t>
-  </si>
-  <si>
-    <t>Q-format Converter &amp; Calculator (chummersone.github.io)</t>
-  </si>
-  <si>
-    <t>b_1</t>
-  </si>
-  <si>
-    <t>b_2</t>
-  </si>
-  <si>
-    <t>b_2 x10000</t>
-  </si>
-  <si>
-    <t>b_3</t>
-  </si>
-  <si>
-    <t>b_4</t>
-  </si>
-  <si>
-    <t>b_1 x10000</t>
-  </si>
-  <si>
-    <t>b_3 x10000</t>
-  </si>
-  <si>
-    <t>b_4 x10000</t>
-  </si>
-  <si>
-    <t>b_5</t>
-  </si>
-  <si>
-    <t>b_6</t>
-  </si>
-  <si>
-    <t>b_7</t>
-  </si>
-  <si>
-    <t>b_8</t>
-  </si>
-  <si>
-    <t>hệ số nhân</t>
-  </si>
-  <si>
-    <t>b_1 hexa</t>
-  </si>
-  <si>
-    <t>ffb9</t>
-  </si>
-  <si>
-    <t>ffaa</t>
-  </si>
-  <si>
-    <t>ff95</t>
-  </si>
-  <si>
-    <t>ff9f</t>
-  </si>
-  <si>
-    <t>00f5</t>
-  </si>
-  <si>
-    <t>02a6</t>
-  </si>
-  <si>
-    <t>0b16</t>
-  </si>
-  <si>
-    <t>0dcd</t>
-  </si>
-  <si>
-    <t>0fac</t>
-  </si>
-  <si>
-    <t>fffe</t>
-  </si>
-  <si>
-    <t>fff7</t>
-  </si>
-  <si>
-    <t>fff0</t>
-  </si>
-  <si>
-    <t>004e</t>
-  </si>
-  <si>
-    <t>ffe4</t>
-  </si>
-  <si>
-    <t>ff4d</t>
-  </si>
-  <si>
-    <t>021a</t>
-  </si>
-  <si>
-    <t>fb1a</t>
-  </si>
-  <si>
-    <t>fd95</t>
-  </si>
-  <si>
-    <t>07c7</t>
-  </si>
-  <si>
-    <t>07a2</t>
-  </si>
-  <si>
-    <t>f845</t>
-  </si>
-  <si>
-    <t>f26e</t>
-  </si>
-  <si>
-    <t>b_2 hexa</t>
-  </si>
-  <si>
-    <t>b_3 hexa</t>
-  </si>
-  <si>
-    <t>b_4 hexa</t>
-  </si>
-  <si>
-    <t>b_5 hexa</t>
-  </si>
-  <si>
-    <t>b_6 hexa</t>
-  </si>
-  <si>
-    <t>b_7 hexa</t>
-  </si>
-  <si>
-    <t>b_8 hexa</t>
-  </si>
-  <si>
-    <t>fffd</t>
-  </si>
-  <si>
-    <t>fffa</t>
-  </si>
-  <si>
-    <t>fff8</t>
-  </si>
-  <si>
-    <t>fffc</t>
-  </si>
-  <si>
-    <t>000d</t>
-  </si>
-  <si>
-    <t>002b</t>
-  </si>
-  <si>
-    <t>00c3</t>
-  </si>
-  <si>
-    <t>00b2</t>
-  </si>
-  <si>
-    <t>ffef</t>
-  </si>
-  <si>
-    <t>fdd4</t>
-  </si>
-  <si>
-    <t>fa8d</t>
-  </si>
-  <si>
-    <t>f7c4</t>
-  </si>
-  <si>
-    <t>f7fe</t>
-  </si>
-  <si>
-    <t>fcbe</t>
-  </si>
-  <si>
-    <t>04d9</t>
-  </si>
-  <si>
-    <t>0c8f</t>
-  </si>
-  <si>
-    <t>0fbb</t>
-  </si>
-  <si>
-    <t>fff6</t>
-  </si>
-  <si>
-    <t>fff5</t>
-  </si>
-  <si>
-    <t>004c</t>
-  </si>
-  <si>
-    <t>ffd8</t>
-  </si>
-  <si>
-    <t>fed8</t>
-  </si>
-  <si>
-    <t>fe3f</t>
-  </si>
-  <si>
-    <t>042c</t>
-  </si>
-  <si>
-    <t>01c7</t>
-  </si>
-  <si>
-    <t>f803</t>
-  </si>
-  <si>
-    <t>f302</t>
-  </si>
-  <si>
-    <t>fa5b</t>
-  </si>
-  <si>
-    <t>08d9</t>
-  </si>
-  <si>
-    <t>103f</t>
-  </si>
-  <si>
-    <t>ffff</t>
-  </si>
-  <si>
-    <t>fff4</t>
-  </si>
-  <si>
-    <t>ffbe</t>
-  </si>
-  <si>
-    <t>009c</t>
-  </si>
-  <si>
-    <t>fdec</t>
-  </si>
-  <si>
-    <t>04f3</t>
-  </si>
-  <si>
-    <t>fd51</t>
-  </si>
-  <si>
-    <t>f85b</t>
-  </si>
-  <si>
-    <t>076b</t>
-  </si>
-  <si>
-    <t>f23e</t>
-  </si>
-  <si>
-    <t>fcd4</t>
-  </si>
-  <si>
-    <t>fff2</t>
-  </si>
-  <si>
-    <t>ffd4</t>
-  </si>
-  <si>
-    <t>fe9f</t>
-  </si>
-  <si>
-    <t>01ef</t>
-  </si>
-  <si>
-    <t>fb8f</t>
-  </si>
-  <si>
-    <t>06d3</t>
-  </si>
-  <si>
-    <t>fdfb</t>
-  </si>
-  <si>
-    <t>f7fc</t>
-  </si>
-  <si>
-    <t>0d35</t>
-  </si>
-  <si>
-    <t>fa2b</t>
-  </si>
-  <si>
-    <t>f72d</t>
-  </si>
-  <si>
-    <t>100e</t>
-  </si>
-  <si>
-    <t>fff3</t>
-  </si>
-  <si>
-    <t>ff10</t>
-  </si>
-  <si>
-    <t>fe88</t>
-  </si>
-  <si>
-    <t>032c</t>
-  </si>
-  <si>
-    <t>f8f0</t>
-  </si>
-  <si>
-    <t>f7b8</t>
-  </si>
-  <si>
-    <t>029f</t>
-  </si>
-  <si>
-    <t>05c1</t>
-  </si>
-  <si>
-    <t>f2c3</t>
-  </si>
-  <si>
-    <t>0ffe</t>
-  </si>
-  <si>
-    <t>ffe0</t>
-  </si>
-  <si>
-    <t>ff5f</t>
-  </si>
-  <si>
-    <t>fed3</t>
-  </si>
-  <si>
-    <t>fefd</t>
-  </si>
-  <si>
-    <t>fc65</t>
-  </si>
-  <si>
-    <t>f6f8</t>
-  </si>
-  <si>
-    <t>0b74</t>
-  </si>
-  <si>
-    <t>f2e5</t>
-  </si>
-  <si>
-    <t>0d7d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">câu lệnh test verilog </t>
-  </si>
-  <si>
-    <t>iverilog -o test.vvp test.v</t>
-  </si>
-  <si>
-    <t>vvp test.vvp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đọc file nhị phân vào kiểu gì ? Và xuất ra  kiểu gì ? </t>
-  </si>
-  <si>
-    <t>Verilog File IO Operations (chipverify.com)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sử dụng iverilog viết code test trước </t>
+* Biết được sử dụng FIR để làm gì ? (hệ số bộ lọc, kiến trúc tổng quát, logic, vật lý)
+* Anh Chuyên cho họp góp ý phần code ??? Làm sao để chuyên hệ số về bit ?
+* Code lấy từ chỗ em Huy mới làm một fir bổ sung thêm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Đã chạy được ra wave 
+* Cần làm báo cáo </t>
+  </si>
+  <si>
+    <t>* Code viết đến testbench nhưng ra wave chưa hiểu được ý nghĩa 
+* Mô phỏng ra wave</t>
+  </si>
+  <si>
+    <t>1) Slide trình bày về 
+kiến trúc, 
+cách bố trí code, 
+cách test, 
+kiến trúc testbench, 
+kết quả tổng hợp trên kit với các thông số về 
+số cell, 
+số gate, 
+số ram, 
+dsp, 
+tốc độ fclk, 
+throughput, 
+latency. 
+2) Chạy demo mạch bằng mô phỏng.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.0000000000000000E+00"/>
     <numFmt numFmtId="167" formatCode="0.00000000000000000E+00"/>
+    <numFmt numFmtId="178" formatCode="0.00000000000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -661,7 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -732,6 +803,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1017,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365BF2FE-2A13-4B02-ABE4-817B8D0BBC3A}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1104,7 @@
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="37.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="61.77734375" customWidth="1"/>
+    <col min="5" max="5" width="89.5546875" customWidth="1"/>
     <col min="7" max="7" width="40.77734375" customWidth="1"/>
     <col min="8" max="8" width="25.33203125" customWidth="1"/>
   </cols>
@@ -1075,7 +1150,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="360" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -1087,48 +1162,68 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="13">
-        <v>45600</v>
+      <c r="B5" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
@@ -1212,6 +1307,24 @@
       <c r="E17" s="4"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1245,7 +1358,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1">
         <f>2*10^16</f>
@@ -1254,64 +1367,64 @@
     </row>
     <row r="3" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="L3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="M3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>61</v>
-      </c>
       <c r="P3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>88</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1348,7 +1461,7 @@
         <v>112996574545.64001</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P4" s="17">
         <v>0</v>
@@ -1406,7 +1519,7 @@
         <v>0.11552647988508001</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P5" s="17">
         <v>0</v>
@@ -1464,7 +1577,7 @@
         <v>0.11375411927826</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P6" s="17">
         <v>0</v>
@@ -1522,7 +1635,7 @@
         <v>-0.13726321405764999</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P7" s="17">
         <v>0</v>
@@ -1537,13 +1650,13 @@
         <v>1</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U7" s="17">
         <v>0</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1583,16 +1696,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="17">
         <v>1</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T8" s="17">
         <v>0</v>
@@ -1638,10 +1751,10 @@
         <v>-1.8433988645808101</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="17">
         <v>3</v>
@@ -1650,16 +1763,16 @@
         <v>0</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T9" s="17">
         <v>2</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1696,10 +1809,10 @@
         <v>-2.4274491539716498</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="17">
         <v>3</v>
@@ -1711,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U10" s="17">
         <v>2</v>
@@ -1757,10 +1870,10 @@
         <v>511</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R11" s="17">
         <v>4</v>
@@ -1775,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1815,22 +1928,22 @@
         <v>802</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T12" s="17">
         <v>7</v>
       </c>
       <c r="U12" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V12" s="17">
         <v>1</v>
@@ -1870,22 +1983,22 @@
         <v>13.213360665006199</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S13" s="17">
         <v>0</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U13" s="17">
         <v>9</v>
@@ -1928,7 +2041,7 @@
         <v>25.318518594397901</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P14" s="17">
         <v>53</v>
@@ -1946,10 +2059,10 @@
         <v>6</v>
       </c>
       <c r="U14" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -1986,19 +2099,19 @@
         <v>59.552396701792297</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="17">
         <v>15</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T15" s="17">
         <v>15</v>
@@ -2047,25 +2160,25 @@
         <v>1056</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U16" s="17">
         <v>9</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -2102,19 +2215,19 @@
         <v>-5.2549758441975998</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T17" s="17">
         <v>51</v>
@@ -2160,13 +2273,13 @@
         <v>-169.75576995901201</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R18" s="17">
         <v>42</v>
@@ -2181,7 +2294,7 @@
         <v>60</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -2218,25 +2331,25 @@
         <v>-425.84637527489298</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U19" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V19" s="27">
         <v>0</v>
@@ -2279,7 +2392,7 @@
         <v>802</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="17">
         <v>0</v>
@@ -2291,13 +2404,13 @@
         <v>0</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U20" s="17">
         <v>182</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -2337,22 +2450,22 @@
         <v>511</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q21" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T21" s="17">
         <v>6</v>
       </c>
       <c r="U21" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V21" s="17">
         <v>149</v>
@@ -2392,28 +2505,28 @@
         <v>-254.59205816811399</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="17">
         <v>674</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U22" s="17">
         <v>0</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -2450,25 +2563,25 @@
         <v>378.57897314414697</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q23" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="T23" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="U23" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="V23" s="17">
         <v>28</v>
@@ -2511,22 +2624,22 @@
         <v>0</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S24" s="17">
         <v>806</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V24" s="17">
         <v>165</v>
@@ -2566,28 +2679,28 @@
         <v>1228.9850127454301</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U25" s="17">
         <v>984</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -2624,25 +2737,25 @@
         <v>981.24775794583104</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P26" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T26" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U26" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="V26" s="17">
         <v>645</v>
@@ -2682,28 +2795,28 @@
         <v>378.57897314414799</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R27" s="17">
         <v>340</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T27" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U27" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="V27" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -2740,13 +2853,13 @@
         <v>-254.592058168112</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q28" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R28" s="17">
         <v>1029</v>
@@ -2755,13 +2868,13 @@
         <v>1027</v>
       </c>
       <c r="T28" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U28" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="V28" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -2791,25 +2904,25 @@
         <v>-625.72199026970702</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q29" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R29" s="17">
         <v>340</v>
       </c>
       <c r="S29" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U29" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="V29" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -2839,25 +2952,25 @@
         <v>-643.44497026355293</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q30" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U30" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="V30" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -2887,25 +3000,25 @@
         <v>-425.846375274894</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q31" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R31" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S31" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U31" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -2935,25 +3048,25 @@
         <v>-169.75576995901201</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q32" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S32" s="17">
         <v>806</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U32" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.3">
@@ -2983,25 +3096,25 @@
         <v>-5.2549758441977801</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q33" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.3">
@@ -3031,22 +3144,22 @@
         <v>54.448717566432599</v>
       </c>
       <c r="P34" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q34" s="17">
         <v>674</v>
       </c>
       <c r="R34" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S34" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T34" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U34" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="V34" s="17">
         <v>645</v>
@@ -3079,25 +3192,25 @@
         <v>59.552396701792503</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q35" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R35" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S35" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="U35" s="17">
         <v>984</v>
       </c>
       <c r="V35" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
@@ -3139,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U36" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V36" s="17">
         <v>165</v>
@@ -3175,22 +3288,22 @@
         <v>13.2133606650061</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q37" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R37" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T37" s="17">
         <v>6</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="V37" s="17">
         <v>28</v>
@@ -3223,10 +3336,10 @@
         <v>3.8258023260534504</v>
       </c>
       <c r="P38" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q38" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R38" s="17">
         <v>42</v>
@@ -3235,13 +3348,13 @@
         <v>79</v>
       </c>
       <c r="T38" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U38" s="17">
         <v>0</v>
       </c>
       <c r="V38" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.3">
@@ -3271,22 +3384,22 @@
         <v>-1.1112264847765099</v>
       </c>
       <c r="P39" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q39" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T39" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U39" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V39" s="17">
         <v>149</v>
@@ -3319,16 +3432,16 @@
         <v>-2.4274491539718799</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q40" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R40" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S40" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T40" s="17">
         <v>46</v>
@@ -3337,7 +3450,7 @@
         <v>182</v>
       </c>
       <c r="V40" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.3">
@@ -3367,22 +3480,22 @@
         <v>-1.8433988645811399</v>
       </c>
       <c r="P41" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q41" s="17">
         <v>15</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T41" s="17">
         <v>51</v>
       </c>
       <c r="U41" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V41" s="27">
         <v>0</v>
@@ -3415,7 +3528,7 @@
         <v>-0.82833470599665004</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q42" s="17">
         <v>3</v>
@@ -3427,13 +3540,13 @@
         <v>19</v>
       </c>
       <c r="T42" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U42" s="17">
         <v>60</v>
       </c>
       <c r="V42" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.3">
@@ -3466,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="Q43" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S43" s="17">
         <v>0</v>
@@ -3514,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R44" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S44" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T44" s="17">
         <v>6</v>
@@ -3529,7 +3642,7 @@
         <v>9</v>
       </c>
       <c r="V44" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.3">
@@ -3562,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R45" s="17">
         <v>4</v>
@@ -3571,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="T45" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U45" s="17">
         <v>9</v>
@@ -3622,10 +3735,10 @@
         <v>7</v>
       </c>
       <c r="U46" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="V46" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.3">
@@ -3654,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T47" s="17">
         <v>2</v>
@@ -3689,16 +3802,16 @@
         <v>1</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S48" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U48" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V48" s="17">
         <v>1</v>
@@ -3739,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="3:22" x14ac:dyDescent="0.3">
@@ -3809,13 +3922,13 @@
         <v>0</v>
       </c>
       <c r="T51" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U51" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V51" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="3:22" x14ac:dyDescent="0.3">
@@ -3873,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="3:22" x14ac:dyDescent="0.3">
@@ -3934,7 +4047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3954,82 +4067,82 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4064,42 +4177,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4108,15 +4221,15 @@
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4124,18 +4237,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4144,16 +4257,16 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4182,4 +4295,39 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14863B07-15F3-4BF8-BD65-AF67CC9EAC4E}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="28">
+        <v>-2.1668236823414698E-3</v>
+      </c>
+      <c r="B1" s="29">
+        <f>A1*1024</f>
+        <v>-2.2188274507176651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="29">
+        <f>'Link tài liệu'!G13-2.21882745071767</f>
+        <v>-2.21882745071767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Lab4/Syllabus.xlsx
+++ b/Lab4/Syllabus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/600d64f34c8f77ee/Desktop/TKS/Lab/Lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="11_F25DC773A252ABDACC1048D9019D56EA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56931F6A-EBEF-4733-830C-A4AF36F69445}"/>
+  <xr:revisionPtr revIDLastSave="540" documentId="11_F25DC773A252ABDACC1048D9019D56EA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{244B864E-2417-49A1-9279-AF41F45D14D3}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab4" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="189">
   <si>
     <t>Thứ 6, 5/4/2024</t>
   </si>
@@ -637,6 +637,38 @@
 latency. 
 2) Chạy demo mạch bằng mô phỏng.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Xem mạch tổng hợp </t>
+  </si>
+  <si>
+    <t>(1) View synthesized circuit in Quartus with RTL Viewer - YouTube</t>
+  </si>
+  <si>
+    <t>Tool -&gt; nestlist viewers-&gt; RTL Viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lựa chọn always mạch tổng hợp đẹp, anh Chuyên bảo thế </t>
+  </si>
+  <si>
+    <t>Sử dụng khối always hay assign ở cuối ?</t>
+  </si>
+  <si>
+    <t>sử dụng generate tại sao ?</t>
+  </si>
+  <si>
+    <t>Thứ 4,17/4/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* file wav phải được chuyển sang 16khz bằng web g711 và sau đó đưa qa python để genbit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Đã làm được:
+Gộp các đầu vào  
+Nhìn wave output tương đồng với input
+Python để biến wav đầu vào thành txt 16bit và chuyển đầu ra từ 32 bit thành 16 bit + convert to wav ok   
+* Chưa làm được:
+ vẽ tín hiệu của âm thanh ban đầu và tín hiệu âm thanh lúc sau bằng python </t>
+  </si>
 </sst>
 </file>
 
@@ -647,7 +679,7 @@
     <numFmt numFmtId="165" formatCode="0.000000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.0000000000000000E+00"/>
     <numFmt numFmtId="167" formatCode="0.00000000000000000E+00"/>
-    <numFmt numFmtId="178" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -803,7 +835,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1094,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365BF2FE-2A13-4B02-ABE4-817B8D0BBC3A}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,12 +1259,18 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
@@ -4045,10 +4083,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B15"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4145,6 +4183,19 @@
         <v>163</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://github.com/cern143/edabk_SoC_doc/blob/main/edabk_server_manual(cookbook).md" xr:uid="{761A92CE-7E24-41EB-B3C8-31B78168FE3F}"/>
@@ -4156,6 +4207,7 @@
     <hyperlink ref="B11" r:id="rId7" display="https://fiiir.com/" xr:uid="{845247CC-7FDC-4846-A783-72B0CC09FDCB}"/>
     <hyperlink ref="B12" r:id="rId8" display="https://g711.org/" xr:uid="{6519A6B5-3EF0-4952-BC8C-B865194BE863}"/>
     <hyperlink ref="B13" r:id="rId9" display="https://chummersone.github.io/qformat.html" xr:uid="{8A46ACF6-EED3-45BD-ACC6-B2BEFC90FB1C}"/>
+    <hyperlink ref="B16" r:id="rId10" display="https://www.youtube.com/watch?v=9DQO3H-UJCw" xr:uid="{7AF84447-3711-4F25-9EEE-A8789033339D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4166,7 +4218,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4274,15 +4326,21 @@
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
